--- a/jpa-rest/src/main/resources/templates/dest.xlsx
+++ b/jpa-rest/src/main/resources/templates/dest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="26">
   <si>
     <t>brand</t>
   </si>
@@ -175,192 +175,183 @@
       <main:b/>
       <main:sz val="12"/>
       <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color rgb="FF000000"/>
-      <main:name val="Calibri"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color rgb="FFFFFFFF"/>
-      <main:name val="宋体"/>
-      <main:family val="3"/>
-      <main:charset val="134"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+      <main:charset val="136"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+      <main:charset val="136"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+      <main:charset val="136"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
     </font>
     <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
@@ -3539,6 +3530,76 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="7.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="60" max="60" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="63" max="63" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="66" max="66" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="3.9375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -3959,203 +4020,203 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="128" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="133" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB3" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="143" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" s="148" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE3" s="153" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="158" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG3" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH3" s="168" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI3" s="173" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ3" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK3" s="183" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL3" s="188" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM3" s="193" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN3" s="198" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO3" s="203" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP3" s="208" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ3" s="213" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR3" s="218" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS3" s="223" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT3" s="228" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU3" s="233" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV3" s="238" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW3" s="243" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX3" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY3" s="253" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ3" s="258" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA3" s="263" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB3" s="268" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC3" s="273" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD3" s="278" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE3" s="283" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF3" s="288" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG3" s="293" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH3" s="298" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI3" s="303" t="s">
-        <v>10</v>
-      </c>
-      <c r="BJ3" s="308" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK3" s="313" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL3" s="318" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM3" s="323" t="s">
-        <v>13</v>
-      </c>
-      <c r="BN3" s="328" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO3" s="333" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP3" s="338" t="s">
-        <v>13</v>
+      <c r="C3" s="13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E3" s="23" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F3" s="28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H3" s="38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I3" s="43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J3" s="48" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K3" s="53" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L3" s="58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M3" s="63" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N3" s="68" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O3" s="73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P3" s="78" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Q3" s="83" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R3" s="88" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S3" s="93" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T3" s="98" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U3" s="103" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V3" s="108" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="W3" s="113" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="X3" s="118" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y3" s="123" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z3" s="128" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AA3" s="133" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB3" s="138" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC3" s="143" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AD3" s="148" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE3" s="153" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AF3" s="158" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG3" s="163" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH3" s="168" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AI3" s="173" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ3" s="178" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AK3" s="183" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AL3" s="188" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AM3" s="193" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN3" s="198" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AO3" s="203" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AP3" s="208" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AQ3" s="213" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AR3" s="218" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AS3" s="223" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AT3" s="228" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AU3" s="233" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AV3" s="238" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AW3" s="243" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AX3" s="248" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AY3" s="253" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ3" s="258" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BA3" s="263" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BB3" s="268" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC3" s="273" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BD3" s="278" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BE3" s="283" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF3" s="288" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BG3" s="293" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BH3" s="298" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI3" s="303" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BJ3" s="308" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BK3" s="313" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL3" s="318" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BM3" s="323" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BN3" s="328" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO3" s="333" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BP3" s="338" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
@@ -4174,68 +4235,68 @@
       <c r="E4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="129" t="s">
-        <v>15</v>
+      <c r="F4" s="29" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G4" s="34" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H4" s="39" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I4" s="44" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="J4" s="49" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K4" s="54" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L4" s="59" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="M4" s="64" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="N4" s="69" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="O4" s="74" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P4" s="79" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Q4" s="84" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="R4" s="89" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S4" s="94" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="T4" s="99" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="U4" s="104" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="V4" s="109" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W4" s="114" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="X4" s="119" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Y4" s="124" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Z4" s="129" t="n">
+        <v>26.0</v>
       </c>
       <c r="AA4" s="134" t="s">
         <v>1</v>
@@ -4249,11 +4310,11 @@
       <c r="AD4" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="154" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="159" t="s">
-        <v>15</v>
+      <c r="AE4" s="154" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF4" s="159" t="n">
+        <v>26.0</v>
       </c>
       <c r="AG4" s="164" t="s">
         <v>1</v>
@@ -4270,17 +4331,17 @@
       <c r="AK4" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="AL4" s="189" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM4" s="194" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="199" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO4" s="204" t="s">
-        <v>15</v>
+      <c r="AL4" s="189" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AM4" s="194" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AN4" s="199" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AO4" s="204" t="n">
+        <v>26.0</v>
       </c>
       <c r="AP4" s="209" t="s">
         <v>1</v>
@@ -4294,11 +4355,11 @@
       <c r="AS4" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="AT4" s="229" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU4" s="234" t="s">
-        <v>15</v>
+      <c r="AT4" s="229" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AU4" s="234" t="n">
+        <v>26.0</v>
       </c>
       <c r="AV4" s="239" t="s">
         <v>1</v>
@@ -4315,17 +4376,17 @@
       <c r="AZ4" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="BA4" s="264" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB4" s="269" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC4" s="274" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD4" s="279" t="s">
-        <v>15</v>
+      <c r="BA4" s="264" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BB4" s="269" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BC4" s="274" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BD4" s="279" t="n">
+        <v>26.0</v>
       </c>
       <c r="BE4" s="284" t="s">
         <v>1</v>
@@ -4339,11 +4400,11 @@
       <c r="BH4" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="BI4" s="304" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ4" s="309" t="s">
-        <v>15</v>
+      <c r="BI4" s="304" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BJ4" s="309" t="n">
+        <v>26.0</v>
       </c>
       <c r="BK4" s="314" t="s">
         <v>1</v>
@@ -4360,8 +4421,8 @@
       <c r="BO4" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="BP4" s="339" t="s">
-        <v>15</v>
+      <c r="BP4" s="339" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
@@ -4371,77 +4432,77 @@
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="U5" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="130" t="s">
-        <v>15</v>
+      <c r="C5" s="15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E5" s="25" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F5" s="30" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G5" s="35" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H5" s="40" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I5" s="45" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="J5" s="50" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K5" s="55" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L5" s="60" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="M5" s="65" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="N5" s="70" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="O5" s="75" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P5" s="80" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Q5" s="85" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="R5" s="90" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S5" s="95" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="T5" s="100" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="U5" s="105" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="V5" s="110" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W5" s="115" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="X5" s="120" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Y5" s="125" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Z5" s="130" t="n">
+        <v>26.0</v>
       </c>
       <c r="AA5" s="135" t="s">
         <v>1</v>
@@ -4455,11 +4516,11 @@
       <c r="AD5" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="AE5" s="155" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF5" s="160" t="s">
-        <v>15</v>
+      <c r="AE5" s="155" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF5" s="160" t="n">
+        <v>26.0</v>
       </c>
       <c r="AG5" s="165" t="s">
         <v>1</v>
@@ -4476,17 +4537,17 @@
       <c r="AK5" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="AL5" s="190" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM5" s="195" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="200" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO5" s="205" t="s">
-        <v>15</v>
+      <c r="AL5" s="190" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AM5" s="195" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AN5" s="200" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AO5" s="205" t="n">
+        <v>26.0</v>
       </c>
       <c r="AP5" s="210" t="s">
         <v>1</v>
@@ -4500,11 +4561,11 @@
       <c r="AS5" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="AT5" s="230" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU5" s="235" t="s">
-        <v>15</v>
+      <c r="AT5" s="230" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AU5" s="235" t="n">
+        <v>26.0</v>
       </c>
       <c r="AV5" s="240" t="s">
         <v>1</v>
@@ -4521,17 +4582,17 @@
       <c r="AZ5" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="BA5" s="265" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB5" s="270" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC5" s="275" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD5" s="280" t="s">
-        <v>15</v>
+      <c r="BA5" s="265" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BB5" s="270" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BC5" s="275" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BD5" s="280" t="n">
+        <v>26.0</v>
       </c>
       <c r="BE5" s="285" t="s">
         <v>1</v>
@@ -4545,11 +4606,11 @@
       <c r="BH5" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="BI5" s="305" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ5" s="310" t="s">
-        <v>15</v>
+      <c r="BI5" s="305" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BJ5" s="310" t="n">
+        <v>26.0</v>
       </c>
       <c r="BK5" s="315" t="s">
         <v>1</v>
@@ -4566,16 +4627,15 @@
       <c r="BO5" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="BP5" s="340" t="s">
-        <v>15</v>
+      <c r="BP5" s="340" t="n">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="C1:H2"/>
     <mergeCell ref="I1:K2"/>
     <mergeCell ref="L1:N2"/>
     <mergeCell ref="O1:Q2"/>
@@ -4587,7 +4647,17 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="X1:AL1"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AY2:BA2"/>
     <mergeCell ref="AM1:BA1"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
     <mergeCell ref="BB1:BP1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/jpa-rest/src/main/resources/templates/dest.xlsx
+++ b/jpa-rest/src/main/resources/templates/dest.xlsx
@@ -12,15 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="26">
   <si>
-    <t>交期</t>
+    <t>brand</t>
   </si>
   <si>
-    <t>F131</t>
+    <t/>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整合 </t>
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>24</t>
@@ -29,19 +47,40 @@
     <t>11</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
-    <t>F214</t>
+    <t>成本</t>
   </si>
   <si>
-    <t/>
+    <t>交期</t>
+  </si>
+  <si>
+    <t>品質</t>
+  </si>
+  <si>
+    <t>永續</t>
+  </si>
+  <si>
+    <t>設計</t>
+  </si>
+  <si>
+    <t>F131</t>
+  </si>
+  <si>
+    <t>F214</t>
   </si>
   <si>
     <t>F132</t>
@@ -52,19 +91,13 @@
   <si>
     <t>F721</t>
   </si>
-  <si>
-    <t>品質</t>
-  </si>
-  <si>
-    <t>永續</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="226">
+  <fonts count="341">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -76,6 +109,768 @@
       <main:b/>
       <main:sz val="12"/>
       <main:color rgb="FFFFFFFF"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+      <main:charset val="136"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+      <main:charset val="136"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+      <main:charset val="136"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
+      <main:name val="Microsoft JhengHei"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF000000"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:color rgb="FFFFFFFF"/>
       <main:name val="Microsoft JhengHei"/>
       <main:family val="2"/>
     </font>
@@ -1558,12 +2353,30 @@
       <main:family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor rgb="FF298103"/>
+        <main:bgColor rgb="FF000000"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor rgb="FFFFFFFF"/>
+        <main:bgColor rgb="FF000000"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor rgb="FFEDEDED"/>
+        <main:bgColor rgb="FF000000"/>
+      </main:patternFill>
     </fill>
     <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
@@ -1577,20 +2390,8 @@
         <main:bgColor rgb="FF000000"/>
       </main:patternFill>
     </fill>
-    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:patternFill patternType="solid">
-        <main:fgColor rgb="FFEDEDED"/>
-        <main:bgColor rgb="FF000000"/>
-      </main:patternFill>
-    </fill>
-    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:patternFill patternType="solid">
-        <main:fgColor rgb="FFFFFFFF"/>
-        <main:bgColor rgb="FF000000"/>
-      </main:patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1599,13 +2400,59 @@
       <diagonal/>
     </border>
     <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:left/>
+      <main:left style="thin">
+        <main:color indexed="64"/>
+      </main:left>
       <main:right style="thin">
         <main:color indexed="64"/>
       </main:right>
       <main:top style="thin">
         <main:color indexed="64"/>
       </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="thin">
+        <main:color indexed="64"/>
+      </main:left>
+      <main:right style="thin">
+        <main:color indexed="64"/>
+      </main:right>
+      <main:top/>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="thin">
+        <main:color indexed="64"/>
+      </main:left>
+      <main:right style="thin">
+        <main:color indexed="64"/>
+      </main:right>
+      <main:top/>
+      <main:bottom style="thin">
+        <main:color indexed="64"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="thin">
+        <main:color indexed="64"/>
+      </main:left>
+      <main:right/>
+      <main:top style="thin">
+        <main:color indexed="64"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="thin">
+        <main:color indexed="64"/>
+      </main:left>
+      <main:right/>
+      <main:top/>
       <main:bottom style="thin">
         <main:color indexed="64"/>
       </main:bottom>
@@ -1622,685 +2469,1054 @@
       </main:bottom>
       <main:diagonal/>
     </border>
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right style="thin">
+        <main:color indexed="64"/>
+      </main:right>
+      <main:top style="thin">
+        <main:color indexed="64"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right style="thin">
+        <main:color indexed="64"/>
+      </main:right>
+      <main:top style="thin">
+        <main:color indexed="64"/>
+      </main:top>
+      <main:bottom style="thin">
+        <main:color indexed="64"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="34" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="38" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="39" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="40" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="42" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="44" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="45" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="47" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="48" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="53" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="54" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="55" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="56" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="57" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="58" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="59" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="60" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="61" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="62" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="63" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="64" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="65" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="66" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="67" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="68" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="69" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="70" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="71" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="72" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="73" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="74" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="75" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="76" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="77" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="78" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="79" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="80" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="82" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="83" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="84" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="85" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="86" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="87" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="88" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="89" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="90" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="91" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="92" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="93" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="94" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="95" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="96" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="97" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="98" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="99" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="100" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="101" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="102" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="103" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="104" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="105" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="106" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="107" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="108" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="109" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="110" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="111" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="112" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="113" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="114" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="115" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="116" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="117" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="118" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="119" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="120" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="121" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="122" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="123" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="124" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="125" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="126" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="127" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="128" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="129" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="130" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="131" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="132" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="133" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="134" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="135" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="136" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="137" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="138" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="139" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="140" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="141" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="142" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="143" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="144" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="145" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="146" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="147" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="148" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="149" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="150" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="151" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="152" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="153" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="154" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="155" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="156" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="157" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="158" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="159" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="160" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="161" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="162" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="163" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="164" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="165" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="166" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="167" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="168" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="169" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="170" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="171" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="172" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="173" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="174" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="175" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="176" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="177" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="178" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="179" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="180" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="181" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="182" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="183" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="184" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="185" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="186" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="187" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="188" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="189" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="190" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="191" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="192" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="193" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="194" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="195" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="196" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="197" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="198" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="199" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="200" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="201" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="202" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="203" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="204" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="205" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="206" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="207" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="208" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="209" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="210" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="211" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="212" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="213" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="214" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="215" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="216" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="217" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="218" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="219" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="220" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="221" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="222" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="223" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="224" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="225" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="30" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="34" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="35" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="36" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="38" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="40" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="42" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="43" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="44" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="45" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="46" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="47" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="48" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="53" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="54" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="55" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="56" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="57" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="58" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="59" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="60" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="61" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="62" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="63" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="64" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="65" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="66" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="67" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="68" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="69" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="70" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="71" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="72" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="73" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="74" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="75" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="76" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="77" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="78" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="79" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="80" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="81" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="82" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="83" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="84" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="85" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="86" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="87" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="88" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="89" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="90" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="91" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="92" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="93" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="94" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="95" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="96" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="97" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="98" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="99" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="100" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="101" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="102" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="103" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="104" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="105" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="106" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="107" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="108" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="109" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="110" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="111" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="112" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="113" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="114" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="115" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="116" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="117" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="118" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="119" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="120" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="121" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="122" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="123" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="124" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="125" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="126" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="127" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="128" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="129" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="130" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="131" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="132" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="133" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="134" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="135" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="136" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="137" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="138" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="139" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="140" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="141" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="142" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="143" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="144" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="145" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="146" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="147" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="148" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="149" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="150" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="151" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="152" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="153" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="154" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="155" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="156" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="157" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="158" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="159" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="160" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="161" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="162" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="163" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="164" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="165" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="166" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="167" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="168" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="169" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="170" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="171" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="172" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="173" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="174" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="175" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="176" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="177" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="178" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="179" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="180" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="181" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="182" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="183" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="184" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="185" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="186" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="187" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="188" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="189" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="190" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="191" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="192" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="193" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="194" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="195" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="196" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="197" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="198" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="199" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="200" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="201" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="202" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="203" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="204" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="205" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="206" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="207" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="208" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="209" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="210" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="211" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="212" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="213" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="214" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="215" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="216" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="217" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="218" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="219" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="220" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="221" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="222" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="223" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="224" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="225" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="226" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="227" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="228" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="229" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="230" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="231" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="232" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="233" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="234" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="235" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="236" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="237" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="238" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="239" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="240" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="241" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="242" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="243" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="244" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="245" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="246" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="247" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="248" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="249" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="250" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="251" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="252" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="253" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="254" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="255" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="256" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="257" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="258" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="259" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="260" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="261" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="262" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="263" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="264" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="265" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="266" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="267" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="268" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="269" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="270" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="271" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="272" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="273" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="274" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="275" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="276" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="277" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="278" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="279" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="280" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="281" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="282" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="283" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="284" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="285" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="286" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="287" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="288" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="289" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="290" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="291" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="292" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="293" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="294" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="295" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="296" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="297" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="298" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="299" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="300" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="301" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="302" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="303" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="304" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="305" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="306" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="307" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="308" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="309" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="310" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="311" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="312" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="313" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="314" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="315" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="316" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="317" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="318" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="319" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="320" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="321" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="322" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="323" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="324" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="325" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="326" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="327" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="328" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="329" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="330" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="331" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="332" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="333" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="334" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="335" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="336" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="337" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="338" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="339" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="340" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2309,14 +3525,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="3.9375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="3.9375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="3.9375" customWidth="true" bestFit="true"/>
@@ -2360,6 +3576,29 @@
     <col min="43" max="43" width="3.9375" customWidth="true" bestFit="true"/>
     <col min="44" max="44" width="3.9375" customWidth="true" bestFit="true"/>
     <col min="45" max="45" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="60" max="60" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="63" max="63" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="66" max="66" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="3.9375" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="3.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2367,136 +3606,205 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M1" s="61" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O1" s="71" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P1" s="76" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="81" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R1" s="86" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S1" s="91" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T1" s="96" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U1" s="101" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="V1" s="106" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="W1" s="111" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="X1" s="116" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="121" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z1" s="126" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA1" s="131" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="136" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="141" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD1" s="146" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE1" s="151" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF1" s="156" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG1" s="161" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH1" s="166" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI1" s="171" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AJ1" s="176" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK1" s="181" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL1" s="186" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AM1" s="191" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AN1" s="196" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO1" s="201" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AP1" s="206" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AQ1" s="211" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AR1" s="216" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AS1" s="221" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="AT1" s="226" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU1" s="231" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV1" s="236" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW1" s="241" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="246" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY1" s="251" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ1" s="256" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA1" s="261" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB1" s="266" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC1" s="271" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD1" s="276" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE1" s="281" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF1" s="286" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG1" s="291" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH1" s="296" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI1" s="301" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ1" s="306" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK1" s="311" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL1" s="316" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM1" s="321" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN1" s="326" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO1" s="331" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP1" s="336" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -2510,40 +3818,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M2" s="62" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N2" s="67" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O2" s="72" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P2" s="77" t="s">
         <v>1</v>
@@ -2555,518 +3863,802 @@
         <v>1</v>
       </c>
       <c r="S2" s="92" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T2" s="97" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U2" s="102" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V2" s="107" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W2" s="112" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X2" s="117" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y2" s="122" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Z2" s="127" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA2" s="132" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="137" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AC2" s="142" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AD2" s="147" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE2" s="152" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AF2" s="157" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AG2" s="162" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AH2" s="167" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AI2" s="172" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AJ2" s="177" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AK2" s="182" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AL2" s="187" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AM2" s="192" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AN2" s="197" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AO2" s="202" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP2" s="207" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AQ2" s="212" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AR2" s="217" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AS2" s="222" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="AT2" s="227" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="232" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV2" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW2" s="242" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX2" s="247" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="252" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ2" s="257" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA2" s="262" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB2" s="267" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC2" s="272" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD2" s="277" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE2" s="282" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF2" s="287" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG2" s="292" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH2" s="297" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI2" s="302" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ2" s="307" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK2" s="312" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL2" s="317" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM2" s="322" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN2" s="327" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO2" s="332" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP2" s="337" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="n">
         <v>10.0</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="D3" s="18" t="n">
         <v>11.0</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="E3" s="23" t="n">
         <v>12.0</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="F3" s="28" t="n">
         <v>10.0</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="G3" s="33" t="n">
         <v>11.0</v>
       </c>
-      <c r="F3" s="28" t="n">
+      <c r="H3" s="38" t="n">
         <v>12.0</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="I3" s="43" t="n">
         <v>10.0</v>
       </c>
-      <c r="H3" s="38" t="n">
+      <c r="J3" s="48" t="n">
         <v>11.0</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="K3" s="53" t="n">
         <v>12.0</v>
       </c>
-      <c r="J3" s="48" t="n">
+      <c r="L3" s="58" t="n">
         <v>10.0</v>
       </c>
-      <c r="K3" s="53" t="n">
+      <c r="M3" s="63" t="n">
         <v>11.0</v>
       </c>
-      <c r="L3" s="58" t="n">
+      <c r="N3" s="68" t="n">
         <v>12.0</v>
       </c>
-      <c r="M3" s="63" t="n">
+      <c r="O3" s="73" t="n">
         <v>10.0</v>
       </c>
-      <c r="N3" s="68" t="n">
+      <c r="P3" s="78" t="n">
         <v>11.0</v>
       </c>
-      <c r="O3" s="73" t="n">
+      <c r="Q3" s="83" t="n">
         <v>12.0</v>
       </c>
-      <c r="P3" s="78" t="n">
+      <c r="R3" s="88" t="n">
         <v>10.0</v>
       </c>
-      <c r="Q3" s="83" t="n">
+      <c r="S3" s="93" t="n">
         <v>11.0</v>
       </c>
-      <c r="R3" s="88" t="n">
+      <c r="T3" s="98" t="n">
         <v>12.0</v>
       </c>
-      <c r="S3" s="93" t="n">
+      <c r="U3" s="103" t="n">
         <v>10.0</v>
       </c>
-      <c r="T3" s="98" t="n">
+      <c r="V3" s="108" t="n">
         <v>11.0</v>
       </c>
-      <c r="U3" s="103" t="n">
+      <c r="W3" s="113" t="n">
         <v>12.0</v>
       </c>
-      <c r="V3" s="108" t="n">
+      <c r="X3" s="118" t="n">
         <v>10.0</v>
       </c>
-      <c r="W3" s="113" t="n">
+      <c r="Y3" s="123" t="n">
         <v>11.0</v>
       </c>
-      <c r="X3" s="118" t="n">
+      <c r="Z3" s="128" t="n">
         <v>12.0</v>
       </c>
-      <c r="Y3" s="123" t="n">
+      <c r="AA3" s="133" t="n">
         <v>10.0</v>
       </c>
-      <c r="Z3" s="128" t="n">
+      <c r="AB3" s="138" t="n">
         <v>11.0</v>
       </c>
-      <c r="AA3" s="133" t="n">
+      <c r="AC3" s="143" t="n">
         <v>12.0</v>
       </c>
-      <c r="AB3" s="138" t="n">
+      <c r="AD3" s="148" t="n">
         <v>10.0</v>
       </c>
-      <c r="AC3" s="143" t="n">
+      <c r="AE3" s="153" t="n">
         <v>11.0</v>
       </c>
-      <c r="AD3" s="148" t="n">
+      <c r="AF3" s="158" t="n">
         <v>12.0</v>
       </c>
-      <c r="AE3" s="153" t="n">
+      <c r="AG3" s="163" t="n">
         <v>10.0</v>
       </c>
-      <c r="AF3" s="158" t="n">
+      <c r="AH3" s="168" t="n">
         <v>11.0</v>
       </c>
-      <c r="AG3" s="163" t="n">
+      <c r="AI3" s="173" t="n">
         <v>12.0</v>
       </c>
-      <c r="AH3" s="168" t="n">
+      <c r="AJ3" s="178" t="n">
         <v>10.0</v>
       </c>
-      <c r="AI3" s="173" t="n">
+      <c r="AK3" s="183" t="n">
         <v>11.0</v>
       </c>
-      <c r="AJ3" s="178" t="n">
+      <c r="AL3" s="188" t="n">
         <v>12.0</v>
       </c>
-      <c r="AK3" s="183" t="n">
+      <c r="AM3" s="193" t="n">
         <v>10.0</v>
       </c>
-      <c r="AL3" s="188" t="n">
+      <c r="AN3" s="198" t="n">
         <v>11.0</v>
       </c>
-      <c r="AM3" s="193" t="n">
+      <c r="AO3" s="203" t="n">
         <v>12.0</v>
       </c>
-      <c r="AN3" s="198" t="n">
+      <c r="AP3" s="208" t="n">
         <v>10.0</v>
       </c>
-      <c r="AO3" s="203" t="n">
+      <c r="AQ3" s="213" t="n">
         <v>11.0</v>
       </c>
-      <c r="AP3" s="208" t="n">
+      <c r="AR3" s="218" t="n">
         <v>12.0</v>
       </c>
-      <c r="AQ3" s="213" t="n">
+      <c r="AS3" s="223" t="n">
         <v>10.0</v>
       </c>
-      <c r="AR3" s="218" t="n">
+      <c r="AT3" s="228" t="n">
         <v>11.0</v>
       </c>
-      <c r="AS3" s="223" t="n">
+      <c r="AU3" s="233" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AV3" s="238" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AW3" s="243" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AX3" s="248" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AY3" s="253" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ3" s="258" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BA3" s="263" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BB3" s="268" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC3" s="273" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BD3" s="278" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BE3" s="283" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF3" s="288" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BG3" s="293" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BH3" s="298" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI3" s="303" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BJ3" s="308" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BK3" s="313" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL3" s="318" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BM3" s="323" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BN3" s="328" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO3" s="333" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BP3" s="338" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="29" t="n">
         <v>24.0</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="G4" s="34" t="n">
         <v>25.0</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="H4" s="39" t="n">
         <v>26.0</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="39" t="n">
+      <c r="I4" s="44" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="J4" s="49" t="n">
         <v>25.0</v>
       </c>
-      <c r="I4" s="44" t="n">
+      <c r="K4" s="54" t="n">
         <v>26.0</v>
       </c>
-      <c r="J4" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="69" t="s">
-        <v>9</v>
+      <c r="L4" s="59" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="M4" s="64" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="N4" s="69" t="n">
+        <v>26.0</v>
       </c>
       <c r="O4" s="74" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P4" s="79" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Q4" s="84" t="n">
         <v>26.0</v>
       </c>
-      <c r="P4" s="79" t="n">
+      <c r="R4" s="89" t="n">
         <v>24.0</v>
       </c>
-      <c r="Q4" s="84" t="n">
+      <c r="S4" s="94" t="n">
         <v>25.0</v>
       </c>
-      <c r="R4" s="89" t="n">
+      <c r="T4" s="99" t="n">
         <v>26.0</v>
       </c>
-      <c r="S4" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="109" t="s">
-        <v>9</v>
+      <c r="U4" s="104" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="V4" s="109" t="n">
+        <v>25.0</v>
       </c>
       <c r="W4" s="114" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="X4" s="119" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Y4" s="124" t="n">
         <v>25.0</v>
       </c>
-      <c r="X4" s="119" t="n">
+      <c r="Z4" s="129" t="n">
         <v>26.0</v>
       </c>
-      <c r="Y4" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="129" t="s">
-        <v>9</v>
-      </c>
       <c r="AA4" s="134" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="139" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="144" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="154" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF4" s="159" t="n">
         <v>26.0</v>
       </c>
-      <c r="AE4" s="154" t="n">
+      <c r="AG4" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="169" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="179" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="189" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AM4" s="194" t="n">
         <v>24.0</v>
       </c>
-      <c r="AF4" s="159" t="n">
+      <c r="AN4" s="199" t="n">
         <v>25.0</v>
       </c>
-      <c r="AG4" s="164" t="n">
+      <c r="AO4" s="204" t="n">
         <v>26.0</v>
       </c>
-      <c r="AH4" s="169" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="174" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="179" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="184" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="189" t="n">
+      <c r="AP4" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="214" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="219" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="224" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="229" t="n">
         <v>25.0</v>
       </c>
-      <c r="AM4" s="194" t="n">
+      <c r="AU4" s="234" t="n">
         <v>26.0</v>
       </c>
-      <c r="AN4" s="199" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="204" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="209" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="214" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="219" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS4" s="224" t="n">
+      <c r="AV4" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="244" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="249" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="254" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="264" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BB4" s="269" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BC4" s="274" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BD4" s="279" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BE4" s="284" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="294" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="299" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="304" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BJ4" s="309" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BK4" s="314" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="319" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="324" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="329" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="334" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="339" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="n">
         <v>24.0</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="D5" s="20" t="n">
         <v>25.0</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="E5" s="25" t="n">
         <v>26.0</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>9</v>
+      <c r="F5" s="30" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G5" s="35" t="n">
+        <v>25.0</v>
       </c>
       <c r="H5" s="40" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I5" s="45" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="J5" s="50" t="n">
         <v>25.0</v>
       </c>
-      <c r="I5" s="45" t="n">
+      <c r="K5" s="55" t="n">
         <v>26.0</v>
       </c>
-      <c r="J5" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="70" t="s">
-        <v>9</v>
+      <c r="L5" s="60" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="M5" s="65" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="N5" s="70" t="n">
+        <v>26.0</v>
       </c>
       <c r="O5" s="75" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P5" s="80" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Q5" s="85" t="n">
         <v>26.0</v>
       </c>
-      <c r="P5" s="80" t="n">
+      <c r="R5" s="90" t="n">
         <v>24.0</v>
       </c>
-      <c r="Q5" s="85" t="n">
+      <c r="S5" s="95" t="n">
         <v>25.0</v>
       </c>
-      <c r="R5" s="90" t="n">
+      <c r="T5" s="100" t="n">
         <v>26.0</v>
       </c>
-      <c r="S5" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="110" t="s">
-        <v>9</v>
+      <c r="U5" s="105" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="V5" s="110" t="n">
+        <v>25.0</v>
       </c>
       <c r="W5" s="115" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="X5" s="120" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Y5" s="125" t="n">
         <v>25.0</v>
       </c>
-      <c r="X5" s="120" t="n">
+      <c r="Z5" s="130" t="n">
         <v>26.0</v>
       </c>
-      <c r="Y5" s="125" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="130" t="s">
-        <v>9</v>
-      </c>
       <c r="AA5" s="135" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="140" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="145" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="155" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF5" s="160" t="n">
         <v>26.0</v>
       </c>
-      <c r="AE5" s="155" t="n">
+      <c r="AG5" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="190" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AM5" s="195" t="n">
         <v>24.0</v>
       </c>
-      <c r="AF5" s="160" t="n">
+      <c r="AN5" s="200" t="n">
         <v>25.0</v>
       </c>
-      <c r="AG5" s="165" t="n">
+      <c r="AO5" s="205" t="n">
         <v>26.0</v>
       </c>
-      <c r="AH5" s="170" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI5" s="175" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="180" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="185" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="190" t="n">
+      <c r="AP5" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="215" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="225" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="230" t="n">
         <v>25.0</v>
       </c>
-      <c r="AM5" s="195" t="n">
+      <c r="AU5" s="235" t="n">
         <v>26.0</v>
       </c>
-      <c r="AN5" s="200" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="205" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="210" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ5" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR5" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS5" s="225" t="n">
+      <c r="AV5" s="240" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="245" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="250" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="255" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="260" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="265" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BB5" s="270" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BC5" s="275" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BD5" s="280" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BE5" s="285" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="290" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="295" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="300" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="305" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BJ5" s="310" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BK5" s="315" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="320" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="325" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="330" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="335" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="340" t="n">
         <v>26.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AE1:AS1"/>
+  <mergeCells count="26">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="O1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="X1:AL1"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="AM1:BA1"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BB1:BP1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
